--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/15/seed1/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.97969999999998</v>
+        <v>-20.79589999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.568600000000004</v>
+        <v>-7.432099999999997</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.63710000000002</v>
+        <v>-22.55000000000002</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.14579999999997</v>
+        <v>-20.11429999999997</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.470999999999996</v>
+        <v>-7.457699999999996</v>
       </c>
     </row>
     <row r="10">
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.917099999999996</v>
+        <v>-5.887999999999997</v>
       </c>
     </row>
     <row r="13">
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.97880000000001</v>
+        <v>-21.96570000000002</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.474799999999998</v>
+        <v>-8.332799999999997</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.301399999999992</v>
+        <v>-9.16279999999999</v>
       </c>
     </row>
     <row r="19">
@@ -704,12 +704,12 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.395599999999995</v>
+        <v>-8.235299999999993</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.23049999999999</v>
+        <v>-20.26329999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -718,7 +718,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.93489999999999</v>
+        <v>-7.10769999999999</v>
       </c>
     </row>
     <row r="21">
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.544300000000001</v>
+        <v>-7.332000000000002</v>
       </c>
     </row>
     <row r="27">
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.91089999999999</v>
+        <v>-21.87769999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.16449999999996</v>
+        <v>-21.21099999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -872,12 +872,12 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.436999999999994</v>
+        <v>-7.614499999999996</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.15169999999999</v>
+        <v>-21.12949999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -984,12 +984,12 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.367199999999995</v>
+        <v>-8.115599999999995</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.3995</v>
+        <v>-20.56670000000001</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -998,7 +998,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.497699999999998</v>
+        <v>-7.617099999999997</v>
       </c>
     </row>
     <row r="41">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.205699999999991</v>
+        <v>-7.917399999999991</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.360299999999993</v>
+        <v>-8.003899999999993</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.582000000000004</v>
+        <v>-7.400400000000007</v>
       </c>
     </row>
     <row r="44">
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.8531</v>
+        <v>-21.833</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.688199999999999</v>
+        <v>-7.600900000000003</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.299899999999999</v>
+        <v>-7.425899999999996</v>
       </c>
     </row>
     <row r="49">
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.72919999999999</v>
+        <v>-21.59489999999998</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.0723</v>
+        <v>-22.09599999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.63350000000003</v>
+        <v>-22.64470000000003</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.35080000000001</v>
+        <v>-22.3171</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.09180000000001</v>
+        <v>-22.1303</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1320,7 +1320,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.640499999999998</v>
+        <v>-6.652999999999996</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.990299999999994</v>
+        <v>-6.883699999999996</v>
       </c>
     </row>
     <row r="65">
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.4884</v>
+        <v>-21.47989999999998</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.25539999999999</v>
+        <v>-20.38279999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.58129999999999</v>
+        <v>-21.56499999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1502,7 +1502,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.551699999999999</v>
+        <v>-7.584399999999997</v>
       </c>
     </row>
     <row r="77">
@@ -1572,7 +1572,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.935899999999999</v>
+        <v>-7.894900000000003</v>
       </c>
     </row>
     <row r="82">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.293600000000001</v>
+        <v>-8.3446</v>
       </c>
     </row>
     <row r="90">
@@ -1717,7 +1717,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.59710000000002</v>
+        <v>-21.60490000000001</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-5.964299999999997</v>
+        <v>-5.9382</v>
       </c>
     </row>
     <row r="95">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.12790000000001</v>
+        <v>-22.08780000000001</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
